--- a/_static/global/rankrankings/workers_rank_re_female.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_female.xlsx
@@ -37,12 +37,12 @@
     <t>Giana</t>
   </si>
   <si>
+    <t>Jewel</t>
+  </si>
+  <si>
     <t>Colleen</t>
   </si>
   <si>
-    <t>Jewel</t>
-  </si>
-  <si>
     <t>Annes</t>
   </si>
   <si>
@@ -61,13 +61,13 @@
     <t>Shaniek</t>
   </si>
   <si>
+    <t>Bri</t>
+  </si>
+  <si>
     <t>Kellie</t>
   </si>
   <si>
     <t>Shadaisia</t>
-  </si>
-  <si>
-    <t>Bri</t>
   </si>
   <si>
     <t>female</t>
@@ -477,7 +477,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>7.321127027097197</v>
+        <v>7.240540192629654</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -500,10 +500,10 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>6.207483813366351</v>
+        <v>6.378978103426058</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -514,7 +514,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -523,10 +523,10 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>6.144175721310913</v>
+        <v>6.143455313863114</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -546,7 +546,7 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>5.459786508668073</v>
+        <v>5.419772607443591</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -569,7 +569,7 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <v>5.454409174290521</v>
+        <v>5.312796240675778</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -592,7 +592,7 @@
         <v>18</v>
       </c>
       <c r="E7">
-        <v>4.43871191678395</v>
+        <v>4.071991992584385</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -615,7 +615,7 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>1.344748254705033</v>
+        <v>1.233832614214271</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -638,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="E9">
-        <v>1.185573976477338</v>
+        <v>1.002782814522061</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -661,7 +661,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>0.3853954966149136</v>
+        <v>0.4746561773749075</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -675,7 +675,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -684,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>0.1820663129703523</v>
+        <v>0.4664235049697223</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -698,7 +698,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -707,10 +707,10 @@
         <v>18</v>
       </c>
       <c r="E12">
-        <v>0.05192390385919771</v>
+        <v>0.2827895313987391</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -721,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -730,7 +730,7 @@
         <v>18</v>
       </c>
       <c r="E13">
-        <v>0.003802371299464424</v>
+        <v>0.27386664857579</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>

--- a/_static/global/rankrankings/workers_rank_re_female.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_female.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>index</t>
   </si>
   <si>
+    <t>prolificid</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -34,6 +37,42 @@
     <t>re_rank</t>
   </si>
   <si>
+    <t>60bfcf5805c5ae12a546f9f3</t>
+  </si>
+  <si>
+    <t>60b45e9961dd412bfb6780f8</t>
+  </si>
+  <si>
+    <t>5c5882fc5bfe7600011197cb</t>
+  </si>
+  <si>
+    <t>60bd88b8fc436774352f53b9</t>
+  </si>
+  <si>
+    <t>5e96194b0a9fe909389e9f7b</t>
+  </si>
+  <si>
+    <t>60c0e5899d387663c07eb3a4</t>
+  </si>
+  <si>
+    <t>6077db0613ce87b4a62a78f9</t>
+  </si>
+  <si>
+    <t>608b14a312c099ac00b721b6</t>
+  </si>
+  <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
+    <t>5c0e89c6c323400001e6c4a5</t>
+  </si>
+  <si>
+    <t>6036f9b3b1842f8b659b18c7</t>
+  </si>
+  <si>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -52,10 +91,10 @@
     <t>Nansi</t>
   </si>
   <si>
+    <t>Lori</t>
+  </si>
+  <si>
     <t>Khushi</t>
-  </si>
-  <si>
-    <t>Lori</t>
   </si>
   <si>
     <t>Shaniek</t>
@@ -437,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +501,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -471,22 +513,25 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>7.240540192629654</v>
-      </c>
-      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>7.300264937320475</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -494,22 +539,25 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>6.378978103426058</v>
-      </c>
-      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>6.476670993744667</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -517,22 +565,25 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>6.143455313863114</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>6.369967191149581</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -540,22 +591,25 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>5.419772607443591</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>5.068061057111064</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -563,22 +617,25 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>5.312796240675778</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>5.020468814187423</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -586,68 +643,77 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>4.071991992584385</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>4.300836668514529</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>1.233832614214271</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>1.243334033638253</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>1.002782814522061</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>1.083571972669488</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -655,22 +721,25 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0.4746561773749075</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>0.4793892001648432</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -678,22 +747,25 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>0.4664235049697223</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>0.4192340444739328</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -701,22 +773,25 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>0.2827895313987391</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>0.2565399071127668</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -724,18 +799,21 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>0.27386664857579</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>0.2319910726680612</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13">
         <v>12</v>
       </c>
     </row>

--- a/_static/global/rankrankings/workers_rank_re_female.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_female.xlsx
@@ -61,18 +61,18 @@
     <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
+    <t>6036f9b3b1842f8b659b18c7</t>
+  </si>
+  <si>
     <t>60cb36ee9f58331a33cf5506</t>
   </si>
   <si>
     <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
-    <t>6036f9b3b1842f8b659b18c7</t>
-  </si>
-  <si>
-    <t>60d5775a99b502eec8cf56b4</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -97,16 +97,16 @@
     <t>Khushi</t>
   </si>
   <si>
+    <t>Shadaisia</t>
+  </si>
+  <si>
+    <t>Kellie</t>
+  </si>
+  <si>
     <t>Shaniek</t>
   </si>
   <si>
     <t>Bri</t>
-  </si>
-  <si>
-    <t>Kellie</t>
-  </si>
-  <si>
-    <t>Shadaisia</t>
   </si>
   <si>
     <t>female</t>
@@ -522,7 +522,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>7.300264937320475</v>
+        <v>7.360079283446961</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -548,7 +548,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>6.476670993744667</v>
+        <v>6.358750456454161</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -574,7 +574,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>6.369967191149581</v>
+        <v>6.017579664918089</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -600,7 +600,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>5.068061057111064</v>
+        <v>5.309718579672998</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -626,7 +626,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>5.020468814187423</v>
+        <v>5.244195657518464</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -652,7 +652,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>4.300836668514529</v>
+        <v>4.045026469112039</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -678,7 +678,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>1.243334033638253</v>
+        <v>1.242073243576292</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -704,7 +704,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>1.083571972669488</v>
+        <v>1.014010395470444</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -730,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>0.4793892001648432</v>
+        <v>0.4834459824271087</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -756,10 +756,10 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>0.4192340444739328</v>
+        <v>0.1753989618967279</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -770,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -782,10 +782,10 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>0.2565399071127668</v>
+        <v>0.1348575153764161</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -796,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -808,7 +808,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>0.2319910726680612</v>
+        <v>0.1140016948445168</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_re_female.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_female.xlsx
@@ -40,12 +40,12 @@
     <t>60bfcf5805c5ae12a546f9f3</t>
   </si>
   <si>
+    <t>5c5882fc5bfe7600011197cb</t>
+  </si>
+  <si>
     <t>60b45e9961dd412bfb6780f8</t>
   </si>
   <si>
-    <t>5c5882fc5bfe7600011197cb</t>
-  </si>
-  <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
@@ -61,27 +61,27 @@
     <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
     <t>60d5775a99b502eec8cf56b4</t>
   </si>
   <si>
     <t>6036f9b3b1842f8b659b18c7</t>
   </si>
   <si>
-    <t>60cb36ee9f58331a33cf5506</t>
-  </si>
-  <si>
     <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
     <t>Giana</t>
   </si>
   <si>
+    <t>Colleen</t>
+  </si>
+  <si>
     <t>Jewel</t>
   </si>
   <si>
-    <t>Colleen</t>
-  </si>
-  <si>
     <t>Annes</t>
   </si>
   <si>
@@ -97,13 +97,13 @@
     <t>Khushi</t>
   </si>
   <si>
+    <t>Shaniek</t>
+  </si>
+  <si>
     <t>Shadaisia</t>
   </si>
   <si>
     <t>Kellie</t>
-  </si>
-  <si>
-    <t>Shaniek</t>
   </si>
   <si>
     <t>Bri</t>
@@ -522,7 +522,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>7.360079283446961</v>
+        <v>7.311265211180753</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -548,10 +548,10 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>6.358750456454161</v>
+        <v>6.075952185643782</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -562,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -574,10 +574,10 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>6.017579664918089</v>
+        <v>6.068676626552405</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -600,7 +600,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>5.309718579672998</v>
+        <v>5.477047804629725</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -626,7 +626,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>5.244195657518464</v>
+        <v>5.249471932023906</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -652,7 +652,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>4.045026469112039</v>
+        <v>4.260356005502568</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -678,7 +678,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>1.242073243576292</v>
+        <v>1.260598627945096</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -704,7 +704,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>1.014010395470444</v>
+        <v>1.185192640848691</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -730,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>0.4834459824271087</v>
+        <v>0.3346982378612178</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -756,10 +756,10 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>0.1753989618967279</v>
+        <v>0.26099946291021</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -770,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -782,10 +782,10 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>0.1348575153764161</v>
+        <v>0.07698541627100014</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -808,7 +808,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>0.1140016948445168</v>
+        <v>0.04919117767745862</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_re_female.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_female.xlsx
@@ -40,12 +40,12 @@
     <t>60bfcf5805c5ae12a546f9f3</t>
   </si>
   <si>
+    <t>60b45e9961dd412bfb6780f8</t>
+  </si>
+  <si>
     <t>5c5882fc5bfe7600011197cb</t>
   </si>
   <si>
-    <t>60b45e9961dd412bfb6780f8</t>
-  </si>
-  <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
@@ -61,27 +61,27 @@
     <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
+    <t>6036f9b3b1842f8b659b18c7</t>
+  </si>
+  <si>
+    <t>5c0e89c6c323400001e6c4a5</t>
+  </si>
+  <si>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
     <t>60cb36ee9f58331a33cf5506</t>
   </si>
   <si>
-    <t>60d5775a99b502eec8cf56b4</t>
-  </si>
-  <si>
-    <t>6036f9b3b1842f8b659b18c7</t>
-  </si>
-  <si>
-    <t>5c0e89c6c323400001e6c4a5</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
+    <t>Jewel</t>
+  </si>
+  <si>
     <t>Colleen</t>
   </si>
   <si>
-    <t>Jewel</t>
-  </si>
-  <si>
     <t>Annes</t>
   </si>
   <si>
@@ -97,16 +97,16 @@
     <t>Khushi</t>
   </si>
   <si>
+    <t>Kellie</t>
+  </si>
+  <si>
+    <t>Bri</t>
+  </si>
+  <si>
+    <t>Shadaisia</t>
+  </si>
+  <si>
     <t>Shaniek</t>
-  </si>
-  <si>
-    <t>Shadaisia</t>
-  </si>
-  <si>
-    <t>Kellie</t>
-  </si>
-  <si>
-    <t>Bri</t>
   </si>
   <si>
     <t>female</t>
@@ -522,7 +522,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>7.311265211180753</v>
+        <v>7.186737775649103</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -548,10 +548,10 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>6.075952185643782</v>
+        <v>6.491841461046875</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -562,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -574,10 +574,10 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>6.068676626552405</v>
+        <v>6.098775820819761</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -600,7 +600,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>5.477047804629725</v>
+        <v>5.03843188797754</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -626,7 +626,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>5.249471932023906</v>
+        <v>5.020761003118488</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -652,7 +652,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>4.260356005502568</v>
+        <v>4.239120605821088</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -678,7 +678,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>1.260598627945096</v>
+        <v>1.248319253184411</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -704,7 +704,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>1.185192640848691</v>
+        <v>1.073514296423548</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -730,10 +730,10 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>0.3346982378612178</v>
+        <v>0.4217658868825644</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -756,7 +756,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>0.26099946291021</v>
+        <v>0.4004490700212808</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -770,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -782,10 +782,10 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>0.07698541627100014</v>
+        <v>0.3953773248513697</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -796,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -808,7 +808,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>0.04919117767745862</v>
+        <v>0.1805031549777598</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_re_female.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_female.xlsx
@@ -40,18 +40,18 @@
     <t>60bfcf5805c5ae12a546f9f3</t>
   </si>
   <si>
+    <t>5c5882fc5bfe7600011197cb</t>
+  </si>
+  <si>
     <t>60b45e9961dd412bfb6780f8</t>
   </si>
   <si>
-    <t>5c5882fc5bfe7600011197cb</t>
+    <t>5e96194b0a9fe909389e9f7b</t>
   </si>
   <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
-    <t>5e96194b0a9fe909389e9f7b</t>
-  </si>
-  <si>
     <t>60c0e5899d387663c07eb3a4</t>
   </si>
   <si>
@@ -67,27 +67,27 @@
     <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
     <t>60d5775a99b502eec8cf56b4</t>
   </si>
   <si>
-    <t>60cb36ee9f58331a33cf5506</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
+    <t>Colleen</t>
+  </si>
+  <si>
     <t>Jewel</t>
   </si>
   <si>
-    <t>Colleen</t>
+    <t>Tina</t>
   </si>
   <si>
     <t>Annes</t>
   </si>
   <si>
-    <t>Tina</t>
-  </si>
-  <si>
     <t>Nansi</t>
   </si>
   <si>
@@ -103,10 +103,10 @@
     <t>Bri</t>
   </si>
   <si>
+    <t>Shaniek</t>
+  </si>
+  <si>
     <t>Shadaisia</t>
-  </si>
-  <si>
-    <t>Shaniek</t>
   </si>
   <si>
     <t>female</t>
@@ -522,7 +522,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>7.186737775649103</v>
+        <v>7.39000491208574</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -548,10 +548,10 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>6.491841461046875</v>
+        <v>6.091303748649244</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -562,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -574,10 +574,10 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>6.098775820819761</v>
+        <v>6.07244745832581</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -588,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -600,10 +600,10 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>5.03843188797754</v>
+        <v>5.476255900907384</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -626,10 +626,10 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>5.020761003118488</v>
+        <v>5.199586145078674</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -652,7 +652,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>4.239120605821088</v>
+        <v>4.182434273974512</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -678,7 +678,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>1.248319253184411</v>
+        <v>1.405244066240008</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -704,7 +704,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>1.073514296423548</v>
+        <v>1.285989741820513</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
@@ -730,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>0.4217658868825644</v>
+        <v>0.4301310047900727</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -756,7 +756,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>0.4004490700212808</v>
+        <v>0.3677338533072753</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -770,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -782,7 +782,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>0.3953773248513697</v>
+        <v>0.2397686769137523</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -796,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -808,7 +808,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>0.1805031549777598</v>
+        <v>0.2362855029629706</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_re_female.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_female.xlsx
@@ -61,18 +61,18 @@
     <t>608b14a312c099ac00b721b6</t>
   </si>
   <si>
+    <t>5c0e89c6c323400001e6c4a5</t>
+  </si>
+  <si>
+    <t>60d5775a99b502eec8cf56b4</t>
+  </si>
+  <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
     <t>6036f9b3b1842f8b659b18c7</t>
   </si>
   <si>
-    <t>5c0e89c6c323400001e6c4a5</t>
-  </si>
-  <si>
-    <t>60cb36ee9f58331a33cf5506</t>
-  </si>
-  <si>
-    <t>60d5775a99b502eec8cf56b4</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -97,16 +97,16 @@
     <t>Khushi</t>
   </si>
   <si>
+    <t>Bri</t>
+  </si>
+  <si>
+    <t>Shadaisia</t>
+  </si>
+  <si>
+    <t>Shaniek</t>
+  </si>
+  <si>
     <t>Kellie</t>
-  </si>
-  <si>
-    <t>Bri</t>
-  </si>
-  <si>
-    <t>Shaniek</t>
-  </si>
-  <si>
-    <t>Shadaisia</t>
   </si>
   <si>
     <t>female</t>
@@ -522,7 +522,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>7.39000491208574</v>
+        <v>7.326165517881154</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -548,7 +548,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>6.091303748649244</v>
+        <v>6.035906762210042</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -574,7 +574,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>6.07244745832581</v>
+        <v>6.027117691378983</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -600,7 +600,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>5.476255900907384</v>
+        <v>5.244593786151905</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -626,7 +626,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>5.199586145078674</v>
+        <v>5.10415078822819</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
@@ -652,7 +652,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>4.182434273974512</v>
+        <v>4.080915110249717</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -678,7 +678,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>1.405244066240008</v>
+        <v>1.127328457611293</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -704,7 +704,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>1.285989741820513</v>
+        <v>1.090887131911884</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -730,10 +730,10 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>0.4301310047900727</v>
+        <v>0.434968325099591</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -756,7 +756,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>0.3677338533072753</v>
+        <v>0.2911261319324809</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -782,7 +782,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>0.2397686769137523</v>
+        <v>0.2519625011376062</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -796,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -808,10 +808,10 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>0.2362855029629706</v>
+        <v>0.100228771449971</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>12</v>

--- a/_static/global/rankrankings/workers_rank_re_female.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_female.xlsx
@@ -55,24 +55,24 @@
     <t>60c0e5899d387663c07eb3a4</t>
   </si>
   <si>
+    <t>608b14a312c099ac00b721b6</t>
+  </si>
+  <si>
     <t>6077db0613ce87b4a62a78f9</t>
   </si>
   <si>
-    <t>608b14a312c099ac00b721b6</t>
-  </si>
-  <si>
     <t>5c0e89c6c323400001e6c4a5</t>
   </si>
   <si>
+    <t>6036f9b3b1842f8b659b18c7</t>
+  </si>
+  <si>
+    <t>60cb36ee9f58331a33cf5506</t>
+  </si>
+  <si>
     <t>60d5775a99b502eec8cf56b4</t>
   </si>
   <si>
-    <t>60cb36ee9f58331a33cf5506</t>
-  </si>
-  <si>
-    <t>6036f9b3b1842f8b659b18c7</t>
-  </si>
-  <si>
     <t>Giana</t>
   </si>
   <si>
@@ -91,22 +91,22 @@
     <t>Nansi</t>
   </si>
   <si>
+    <t>Khushi</t>
+  </si>
+  <si>
     <t>Lori</t>
   </si>
   <si>
-    <t>Khushi</t>
-  </si>
-  <si>
     <t>Bri</t>
   </si>
   <si>
+    <t>Kellie</t>
+  </si>
+  <si>
+    <t>Shaniek</t>
+  </si>
+  <si>
     <t>Shadaisia</t>
-  </si>
-  <si>
-    <t>Shaniek</t>
-  </si>
-  <si>
-    <t>Kellie</t>
   </si>
   <si>
     <t>female</t>
@@ -522,7 +522,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>7.326165517881154</v>
+        <v>7.066021659105897</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -548,7 +548,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>6.035906762210042</v>
+        <v>6.08779256618992</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -574,7 +574,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>6.027117691378983</v>
+        <v>6.057214823784022</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -600,7 +600,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>5.244593786151905</v>
+        <v>5.336243183830646</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -626,7 +626,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>5.10415078822819</v>
+        <v>5.23161678505255</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
@@ -652,7 +652,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>4.080915110249717</v>
+        <v>4.436670416417346</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -666,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -678,10 +678,10 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>1.127328457611293</v>
+        <v>1.23052797168464</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -692,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -704,10 +704,10 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>1.090887131911884</v>
+        <v>1.071012198534924</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -730,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>0.434968325099591</v>
+        <v>0.2802740219446506</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -756,10 +756,10 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>0.2911261319324809</v>
+        <v>0.2177540011877876</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -782,7 +782,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>0.2519625011376062</v>
+        <v>0.2177006013509487</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -796,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -808,10 +808,10 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>0.100228771449971</v>
+        <v>0.1591053476746944</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>12</v>
